--- a/admin/upload_excel/uploads/sanpham.xlsx
+++ b/admin/upload_excel/uploads/sanpham.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CEB2F5-BD03-4F36-A74F-604BEDA09F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429C569-8420-4DD8-B7C2-6C8547D7AB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B9A2076C-84CF-4F1F-BC4C-D617F90B8E76}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{B9A2076C-84CF-4F1F-BC4C-D617F90B8E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="322">
   <si>
     <t>Mã Loại SP</t>
   </si>
@@ -186,9 +186,6 @@
     <t>apple-macbook-air-2020-mgnd3saa-400x400.jpg</t>
   </si>
   <si>
-    <t>MacBook Air M1 2020 256GB</t>
-  </si>
-  <si>
     <t>apple-macbook-air-2020-mgn63saa-1-400x400.jpg</t>
   </si>
   <si>
@@ -982,6 +979,18 @@
   </si>
   <si>
     <t>Trang thái</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 20219 256GB</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 2028 256GB</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 2019 512GB</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 2018 512GB</t>
   </si>
 </sst>
 </file>
@@ -1417,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59ADC8-2F5B-4006-9DA9-FA86B053B636}">
-  <dimension ref="A1:AO146"/>
+  <dimension ref="A1:AO145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1438,8 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" style="5" customWidth="1"/>
@@ -1450,115 +1460,115 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="O1" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -1575,14 +1585,13 @@
         <v>19090000</v>
       </c>
       <c r="E2" s="7">
-        <f>D2+1000000</f>
         <v>20090000</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H2" s="9">
         <v>10</v>
@@ -1594,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="11"/>
@@ -1603,31 +1612,31 @@
         <v>1</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -1658,17 +1667,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="7">
-        <v>19090001</v>
+        <v>19090000</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" si="0">D3+1000000</f>
-        <v>20090001</v>
+        <v>20090000</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="H3" s="9">
         <v>10</v>
@@ -1680,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="11"/>
@@ -1689,31 +1697,31 @@
         <v>1</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
@@ -1744,17 +1752,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>19090002</v>
+        <v>19090000</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>20090002</v>
+        <v>20090000</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="H4" s="9">
         <v>10</v>
@@ -1766,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="11"/>
@@ -1775,31 +1782,31 @@
         <v>1</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
@@ -1830,17 +1837,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>19090003</v>
+        <v>19090000</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>20090003</v>
+        <v>20090000</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="H5" s="9">
         <v>10</v>
@@ -1852,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="11"/>
@@ -1861,31 +1867,31 @@
         <v>1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
@@ -1916,17 +1922,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>19090004</v>
+        <v>19090000</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>20090004</v>
+        <v>20090000</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H6" s="9">
         <v>10</v>
@@ -1938,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="11"/>
@@ -1947,31 +1952,31 @@
         <v>1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>263</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
@@ -2005,14 +2010,13 @@
         <v>41990000</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
         <v>42990000</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="H7" s="9">
         <v>10</v>
@@ -2024,7 +2028,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -2035,31 +2039,31 @@
         <v>1</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="W7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -2093,14 +2097,13 @@
         <v>41990000</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
         <v>42990000</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" s="9">
         <v>10</v>
@@ -2112,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8" s="8">
         <v>1</v>
@@ -2123,31 +2126,31 @@
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="9" t="s">
+      <c r="W8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
@@ -2181,14 +2184,13 @@
         <v>41990000</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
         <v>42990000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H9" s="9">
         <v>10</v>
@@ -2200,7 +2202,7 @@
         <v>23</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L9" s="8">
         <v>2</v>
@@ -2211,31 +2213,31 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
@@ -2269,14 +2271,13 @@
         <v>41990000</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="0"/>
         <v>42990000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="9">
         <v>10</v>
@@ -2288,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L10" s="8">
         <v>2</v>
@@ -2299,31 +2300,31 @@
         <v>1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V10" s="9" t="s">
+      <c r="W10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="X10" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -2354,17 +2355,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>38989997</v>
+        <v>38989000</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>39989997</v>
+        <v>39999000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" s="9">
         <v>10</v>
@@ -2376,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7">
         <v>249997</v>
@@ -2387,31 +2387,31 @@
         <v>1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V11" s="9" t="s">
+      <c r="W11" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X11" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -2442,17 +2442,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>38989998</v>
+        <v>38980000</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>39989998</v>
+        <v>39999000</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2464,7 +2463,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7">
         <v>249998</v>
@@ -2475,31 +2474,31 @@
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="T12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V12" s="9" t="s">
+      <c r="W12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -2530,17 +2529,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>38989999</v>
+        <v>38989000</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>39989999</v>
+        <v>39999000</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" s="9">
         <v>10</v>
@@ -2552,7 +2550,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7">
         <v>249999</v>
@@ -2563,31 +2561,31 @@
         <v>1</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13" s="9" t="s">
+      <c r="W13" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="X13" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -2621,14 +2619,13 @@
         <v>38990000</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>39990000</v>
+        <v>39999000</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H14" s="9">
         <v>10</v>
@@ -2640,7 +2637,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7">
         <v>250000</v>
@@ -2651,31 +2648,31 @@
         <v>1</v>
       </c>
       <c r="P14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="V14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="W14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -2706,17 +2703,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>36989997</v>
+        <v>36989000</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>37989997</v>
+        <v>37989000</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H15" s="9">
         <v>10</v>
@@ -2728,7 +2724,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="11"/>
@@ -2737,31 +2733,31 @@
         <v>1</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="T15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="9" t="s">
+      <c r="W15" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -2792,17 +2788,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>36989998</v>
+        <v>36989000</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>37989998</v>
+        <v>37989000</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H16" s="9">
         <v>10</v>
@@ -2814,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="11"/>
@@ -2823,31 +2818,31 @@
         <v>1</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="S16" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="T16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V16" s="9" t="s">
+      <c r="W16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -2878,17 +2873,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>36989999</v>
+        <v>36989000</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>37989999</v>
+        <v>37989000</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H17" s="9">
         <v>10</v>
@@ -2900,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="11"/>
@@ -2909,31 +2903,31 @@
         <v>1</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="T17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V17" s="9" t="s">
+      <c r="W17" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="X17" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -2964,17 +2958,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>36990000</v>
+        <v>36989000</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>37990000</v>
+        <v>37989000</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H18" s="9">
         <v>10</v>
@@ -2986,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11"/>
@@ -2995,31 +2988,31 @@
         <v>1</v>
       </c>
       <c r="P18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="S18" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="T18" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="U18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="V18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="W18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X18" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -3050,17 +3043,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>33989997</v>
+        <v>33989000</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>34989997</v>
+        <v>34989000</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H19" s="9">
         <v>10</v>
@@ -3072,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="11"/>
@@ -3081,31 +3073,31 @@
         <v>1</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="S19" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="T19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" s="9" t="s">
+      <c r="W19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X19" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -3136,17 +3128,16 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>33989998</v>
+        <v>33989000</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>34989998</v>
+        <v>34989000</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H20" s="9">
         <v>10</v>
@@ -3158,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="11"/>
@@ -3167,31 +3158,31 @@
         <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="S20" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="T20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V20" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V20" s="9" t="s">
+      <c r="W20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X20" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -3222,17 +3213,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>33989999</v>
+        <v>33989000</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>34989999</v>
+        <v>34989000</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H21" s="9">
         <v>10</v>
@@ -3244,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="11"/>
@@ -3253,31 +3243,31 @@
         <v>1</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R21" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="S21" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="T21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V21" s="9" t="s">
+      <c r="W21" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="X21" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -3308,17 +3298,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>33990000</v>
+        <v>33989000</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>34990000</v>
+        <v>34989000</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H22" s="9">
         <v>10</v>
@@ -3330,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="11"/>
@@ -3339,31 +3328,31 @@
         <v>1</v>
       </c>
       <c r="P22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="W22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X22" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -3394,17 +3383,16 @@
         <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>32989997</v>
+        <v>32989000</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>33989997</v>
+        <v>33989000</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H23" s="9">
         <v>10</v>
@@ -3416,7 +3404,7 @@
         <v>53</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L23" s="8">
         <v>-3</v>
@@ -3427,31 +3415,31 @@
         <v>1</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R23" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="T23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V23" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V23" s="9" t="s">
+      <c r="W23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X23" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -3482,17 +3470,16 @@
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>32989998</v>
+        <v>32989000</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>33989998</v>
+        <v>33989000</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H24" s="9">
         <v>10</v>
@@ -3504,7 +3491,7 @@
         <v>53</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L24" s="8">
         <v>-2</v>
@@ -3515,31 +3502,31 @@
         <v>1</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R24" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="S24" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="T24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V24" s="9" t="s">
+      <c r="W24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X24" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X24" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -3570,17 +3557,16 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>32989999</v>
+        <v>32989000</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>33989999</v>
+        <v>33989000</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H25" s="9">
         <v>10</v>
@@ -3592,7 +3578,7 @@
         <v>53</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L25" s="8">
         <v>-1</v>
@@ -3603,31 +3589,31 @@
         <v>1</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="S25" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="T25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V25" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V25" s="9" t="s">
+      <c r="W25" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="X25" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -3658,17 +3644,16 @@
         <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>32990000</v>
+        <v>32989000</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>33990000</v>
+        <v>33989000</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H26" s="9">
         <v>10</v>
@@ -3680,7 +3665,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L26" s="8">
         <v>0</v>
@@ -3691,31 +3676,31 @@
         <v>1</v>
       </c>
       <c r="P26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="S26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="T26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="U26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="V26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="W26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X26" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3746,17 +3731,16 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>29989997</v>
+        <v>29989000</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>30989997</v>
+        <v>30989000</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H27" s="9">
         <v>10</v>
@@ -3768,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L27" s="7">
         <v>499997</v>
@@ -3779,31 +3763,31 @@
         <v>1</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R27" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="S27" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="T27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V27" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V27" s="9" t="s">
+      <c r="W27" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3834,17 +3818,16 @@
         <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>29989998</v>
+        <v>29989000</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>30989998</v>
+        <v>30989000</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H28" s="9">
         <v>10</v>
@@ -3856,7 +3839,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L28" s="7">
         <v>499998</v>
@@ -3867,31 +3850,31 @@
         <v>1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R28" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="T28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V28" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V28" s="9" t="s">
+      <c r="W28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X28" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3922,17 +3905,16 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>29989999</v>
+        <v>29989000</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>30989999</v>
+        <v>30989000</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H29" s="9">
         <v>10</v>
@@ -3944,7 +3926,7 @@
         <v>23</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7">
         <v>499999</v>
@@ -3955,31 +3937,31 @@
         <v>1</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R29" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="T29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V29" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V29" s="9" t="s">
+      <c r="W29" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W29" s="9" t="s">
+      <c r="X29" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X29" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -4010,17 +3992,16 @@
         <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>29990000</v>
+        <v>29989000</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>30990000</v>
+        <v>30989000</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H30" s="9">
         <v>10</v>
@@ -4032,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L30" s="7">
         <v>500000</v>
@@ -4043,31 +4024,31 @@
         <v>1</v>
       </c>
       <c r="P30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="S30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="T30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T30" s="9" t="s">
+      <c r="U30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U30" s="9" t="s">
+      <c r="V30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="W30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X30" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X30" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -4098,17 +4079,16 @@
         <v>13</v>
       </c>
       <c r="D31" s="7">
-        <v>27489997</v>
+        <v>27489000</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>28489997</v>
+        <v>28489000</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="9">
         <v>10</v>
@@ -4120,7 +4100,7 @@
         <v>23</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="11"/>
@@ -4129,31 +4109,31 @@
         <v>1</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R31" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="T31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V31" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V31" s="9" t="s">
+      <c r="W31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X31" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W31" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -4184,17 +4164,16 @@
         <v>13</v>
       </c>
       <c r="D32" s="7">
-        <v>27489998</v>
+        <v>27489000</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>28489998</v>
+        <v>28489000</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H32" s="9">
         <v>10</v>
@@ -4206,7 +4185,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="11"/>
@@ -4215,31 +4194,31 @@
         <v>1</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R32" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="S32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="T32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V32" s="9" t="s">
+      <c r="W32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X32" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -4270,17 +4249,16 @@
         <v>13</v>
       </c>
       <c r="D33" s="7">
-        <v>27489999</v>
+        <v>27489000</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>28489999</v>
+        <v>28489000</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H33" s="9">
         <v>10</v>
@@ -4292,7 +4270,7 @@
         <v>23</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="11"/>
@@ -4301,31 +4279,31 @@
         <v>1</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="S33" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="T33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V33" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V33" s="9" t="s">
+      <c r="W33" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W33" s="9" t="s">
+      <c r="X33" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X33" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4356,17 +4334,16 @@
         <v>13</v>
       </c>
       <c r="D34" s="7">
-        <v>27490000</v>
+        <v>27489000</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>28490000</v>
+        <v>28489000</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34" s="9">
         <v>10</v>
@@ -4378,7 +4355,7 @@
         <v>23</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="11"/>
@@ -4387,31 +4364,31 @@
         <v>1</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="T34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T34" s="9" t="s">
+      <c r="U34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="V34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V34" s="9" t="s">
+      <c r="W34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X34" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X34" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4445,14 +4422,13 @@
         <v>27490000</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>28490000</v>
+        <v>28489000</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35" s="9">
         <v>10</v>
@@ -4464,7 +4440,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="11"/>
@@ -4473,31 +4449,31 @@
         <v>1</v>
       </c>
       <c r="P35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="R35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="S35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="T35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="U35" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U35" s="9" t="s">
+      <c r="V35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V35" s="9" t="s">
+      <c r="W35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X35" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X35" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4528,17 +4504,16 @@
         <v>14</v>
       </c>
       <c r="D36" s="7">
-        <v>25689996</v>
+        <v>25689000</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>26689996</v>
+        <v>26689000</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H36" s="9">
         <v>10</v>
@@ -4550,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="11"/>
@@ -4559,31 +4534,31 @@
         <v>1</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="S36" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="R36" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="S36" s="9" t="s">
+      <c r="T36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V36" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="T36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V36" s="9" t="s">
+      <c r="W36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="X36" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="W36" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="X36" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -4614,17 +4589,16 @@
         <v>14</v>
       </c>
       <c r="D37" s="7">
-        <v>25689997</v>
+        <v>25689000</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>26689997</v>
+        <v>26689000</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H37" s="9">
         <v>10</v>
@@ -4636,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="11"/>
@@ -4645,31 +4619,31 @@
         <v>1</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R37" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="S37" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="T37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V37" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V37" s="9" t="s">
+      <c r="W37" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X37" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X37" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4700,17 +4674,16 @@
         <v>14</v>
       </c>
       <c r="D38" s="7">
-        <v>25689998</v>
+        <v>25689000</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>26689998</v>
+        <v>26689000</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H38" s="9">
         <v>10</v>
@@ -4722,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="11"/>
@@ -4731,31 +4704,31 @@
         <v>1</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R38" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="S38" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="T38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V38" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U38" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V38" s="9" t="s">
+      <c r="W38" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X38" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X38" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4786,17 +4759,16 @@
         <v>14</v>
       </c>
       <c r="D39" s="7">
-        <v>25689999</v>
+        <v>25689000</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>26689999</v>
+        <v>26689000</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H39" s="9">
         <v>10</v>
@@ -4808,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="11"/>
@@ -4817,31 +4789,31 @@
         <v>1</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="S39" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="T39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V39" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T39" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V39" s="9" t="s">
+      <c r="W39" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W39" s="9" t="s">
+      <c r="X39" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X39" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -4872,17 +4844,16 @@
         <v>14</v>
       </c>
       <c r="D40" s="7">
-        <v>25690000</v>
+        <v>25689000</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>26690000</v>
+        <v>26689000</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H40" s="9">
         <v>10</v>
@@ -4894,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="11"/>
@@ -4903,31 +4874,31 @@
         <v>1</v>
       </c>
       <c r="P40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="R40" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="S40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="T40" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="U40" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U40" s="9" t="s">
+      <c r="V40" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V40" s="9" t="s">
+      <c r="W40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X40" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W40" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X40" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -4958,17 +4929,16 @@
         <v>15</v>
       </c>
       <c r="D41" s="7">
-        <v>22489996</v>
+        <v>22489000</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>23489996</v>
+        <v>23489000</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H41" s="9">
         <v>10</v>
@@ -4980,7 +4950,7 @@
         <v>54</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L41" s="8">
         <v>-4</v>
@@ -4991,31 +4961,31 @@
         <v>1</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q41" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="S41" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="R41" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="S41" s="9" t="s">
+      <c r="T41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V41" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="T41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U41" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V41" s="9" t="s">
+      <c r="W41" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="X41" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="W41" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="X41" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5046,17 +5016,16 @@
         <v>15</v>
       </c>
       <c r="D42" s="7">
-        <v>22489997</v>
+        <v>22489000</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="0"/>
-        <v>23489997</v>
+        <v>23489000</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H42" s="9">
         <v>10</v>
@@ -5068,7 +5037,7 @@
         <v>54</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L42" s="8">
         <v>-3</v>
@@ -5079,31 +5048,31 @@
         <v>1</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q42" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="R42" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="S42" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="T42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V42" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="T42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U42" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V42" s="9" t="s">
+      <c r="W42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="X42" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="W42" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="X42" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -5134,17 +5103,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="7">
-        <v>22489998</v>
+        <v>22489000</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="0"/>
-        <v>23489998</v>
+        <v>23489000</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H43" s="9">
         <v>10</v>
@@ -5156,7 +5124,7 @@
         <v>54</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L43" s="8">
         <v>-2</v>
@@ -5167,31 +5135,31 @@
         <v>1</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q43" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="R43" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="S43" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="T43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V43" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T43" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U43" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V43" s="9" t="s">
+      <c r="W43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X43" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="W43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X43" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5222,17 +5190,16 @@
         <v>15</v>
       </c>
       <c r="D44" s="7">
-        <v>22489999</v>
+        <v>22489000</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="0"/>
-        <v>23489999</v>
+        <v>23489000</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="9">
         <v>10</v>
@@ -5244,7 +5211,7 @@
         <v>54</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L44" s="8">
         <v>-1</v>
@@ -5255,31 +5222,31 @@
         <v>1</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q44" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R44" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="S44" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="T44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V44" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="T44" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U44" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V44" s="9" t="s">
+      <c r="W44" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="W44" s="9" t="s">
+      <c r="X44" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -5310,17 +5277,16 @@
         <v>15</v>
       </c>
       <c r="D45" s="7">
-        <v>22490000</v>
+        <v>22489000</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="0"/>
-        <v>23490000</v>
+        <v>23489000</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H45" s="9">
         <v>10</v>
@@ -5332,7 +5298,7 @@
         <v>54</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
@@ -5343,31 +5309,31 @@
         <v>1</v>
       </c>
       <c r="P45" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q45" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="R45" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="S45" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="T45" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T45" s="9" t="s">
+      <c r="U45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U45" s="9" t="s">
+      <c r="V45" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V45" s="9" t="s">
+      <c r="W45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X45" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W45" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X45" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -5401,7 +5367,6 @@
         <v>23990000</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="0"/>
         <v>24990000</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -5418,7 +5383,7 @@
         <v>64</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L46" s="7">
         <v>1000000</v>
@@ -5429,31 +5394,31 @@
         <v>1</v>
       </c>
       <c r="P46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q46" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="R46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="S46" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="T46" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T46" s="9" t="s">
+      <c r="U46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U46" s="9" t="s">
+      <c r="V46" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V46" s="9" t="s">
+      <c r="W46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X46" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W46" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X46" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -5487,7 +5452,6 @@
         <v>20390000</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="0"/>
         <v>21390000</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -5504,7 +5468,7 @@
         <v>32</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="11"/>
@@ -5513,31 +5477,31 @@
         <v>1</v>
       </c>
       <c r="P47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q47" s="9" t="s">
+      <c r="R47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="S47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="T47" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T47" s="9" t="s">
+      <c r="U47" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U47" s="9" t="s">
+      <c r="V47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V47" s="9" t="s">
+      <c r="W47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X47" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W47" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
@@ -5571,7 +5535,6 @@
         <v>21990000</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="0"/>
         <v>22990000</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -5588,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="11"/>
@@ -5597,31 +5560,31 @@
         <v>1</v>
       </c>
       <c r="P48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="R48" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="S48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S48" s="9" t="s">
+      <c r="T48" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T48" s="9" t="s">
+      <c r="U48" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U48" s="9" t="s">
+      <c r="V48" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V48" s="9" t="s">
+      <c r="W48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X48" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W48" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X48" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -5655,7 +5618,6 @@
         <v>19490000</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="0"/>
         <v>20490000</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -5672,7 +5634,7 @@
         <v>11</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L49" s="8">
         <v>0</v>
@@ -5683,31 +5645,31 @@
         <v>1</v>
       </c>
       <c r="P49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="R49" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="S49" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="S49" s="9" t="s">
+      <c r="T49" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="T49" s="9" t="s">
+      <c r="U49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U49" s="9" t="s">
+      <c r="V49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V49" s="9" t="s">
+      <c r="W49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X49" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="W49" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="X49" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
@@ -5741,8 +5703,7 @@
         <v>50000000</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="0"/>
-        <v>51000000</v>
+        <v>51990000</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>24</v>
@@ -5758,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L50" s="7">
         <v>500000</v>
@@ -5769,31 +5730,31 @@
         <v>1</v>
       </c>
       <c r="P50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q50" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="R50" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="S50" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S50" s="9" t="s">
+      <c r="T50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T50" s="9" t="s">
+      <c r="U50" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U50" s="9" t="s">
+      <c r="V50" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V50" s="9" t="s">
+      <c r="W50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="W50" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="X50" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
@@ -5827,7 +5788,6 @@
         <v>4590000</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="0"/>
         <v>5590000</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -5844,7 +5804,7 @@
         <v>32</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="11"/>
@@ -5853,31 +5813,31 @@
         <v>1</v>
       </c>
       <c r="P51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q51" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="R51" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="S51" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S51" s="9" t="s">
+      <c r="T51" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T51" s="9" t="s">
+      <c r="U51" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U51" s="9" t="s">
+      <c r="V51" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V51" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W51" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
@@ -5911,7 +5871,6 @@
         <v>4190000</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="0"/>
         <v>5190000</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -5928,7 +5887,7 @@
         <v>23</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="11"/>
@@ -5937,31 +5896,31 @@
         <v>1</v>
       </c>
       <c r="P52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="R52" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="S52" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S52" s="9" t="s">
+      <c r="T52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T52" s="9" t="s">
+      <c r="U52" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U52" s="9" t="s">
+      <c r="V52" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V52" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
@@ -5995,7 +5954,6 @@
         <v>29999000</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="0"/>
         <v>30999000</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -6012,7 +5970,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L53" s="8">
         <v>0</v>
@@ -6023,31 +5981,31 @@
         <v>1</v>
       </c>
       <c r="P53" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q53" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q53" s="9" t="s">
+      <c r="R53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="S53" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S53" s="9" t="s">
+      <c r="T53" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T53" s="9" t="s">
+      <c r="U53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U53" s="9" t="s">
+      <c r="V53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V53" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W53" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -6081,7 +6039,6 @@
         <v>3090000</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="0"/>
         <v>4090000</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -6098,7 +6055,7 @@
         <v>11</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L54" s="7">
         <v>890000</v>
@@ -6109,31 +6066,31 @@
         <v>1</v>
       </c>
       <c r="P54" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q54" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q54" s="9" t="s">
+      <c r="R54" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="S54" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S54" s="9" t="s">
+      <c r="T54" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T54" s="9" t="s">
+      <c r="U54" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U54" s="9" t="s">
+      <c r="V54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V54" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W54" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -6167,7 +6124,6 @@
         <v>8990000</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="0"/>
         <v>9990000</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -6184,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="11"/>
@@ -6193,31 +6149,31 @@
         <v>1</v>
       </c>
       <c r="P55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q55" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q55" s="9" t="s">
+      <c r="R55" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="S55" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S55" s="9" t="s">
+      <c r="T55" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T55" s="9" t="s">
+      <c r="U55" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U55" s="9" t="s">
+      <c r="V55" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V55" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W55" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X55" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -6251,7 +6207,6 @@
         <v>25990000</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="0"/>
         <v>26990000</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -6268,7 +6223,7 @@
         <v>32</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="11"/>
@@ -6277,31 +6232,31 @@
         <v>1</v>
       </c>
       <c r="P56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q56" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="R56" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="S56" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S56" s="9" t="s">
+      <c r="T56" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T56" s="9" t="s">
+      <c r="U56" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U56" s="9" t="s">
+      <c r="V56" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V56" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W56" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -6335,7 +6290,6 @@
         <v>30990000</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="0"/>
         <v>31990000</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -6352,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L57" s="8">
         <v>0</v>
@@ -6363,31 +6317,31 @@
         <v>1</v>
       </c>
       <c r="P57" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="R57" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="S57" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S57" s="9" t="s">
+      <c r="T57" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T57" s="9" t="s">
+      <c r="U57" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U57" s="9" t="s">
+      <c r="V57" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V57" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W57" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X57" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -6421,7 +6375,6 @@
         <v>50000000</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="0"/>
         <v>51000000</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -6438,7 +6391,7 @@
         <v>4</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L58" s="7">
         <v>990000</v>
@@ -6449,31 +6402,31 @@
         <v>1</v>
       </c>
       <c r="P58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q58" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="R58" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="S58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S58" s="9" t="s">
+      <c r="T58" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T58" s="9" t="s">
+      <c r="U58" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U58" s="9" t="s">
+      <c r="V58" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V58" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W58" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X58" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -6507,7 +6460,6 @@
         <v>36990000</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="0"/>
         <v>37990000</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -6524,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="11"/>
@@ -6533,31 +6485,31 @@
         <v>1</v>
       </c>
       <c r="P59" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="R59" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="S59" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S59" s="9" t="s">
+      <c r="T59" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T59" s="9" t="s">
+      <c r="U59" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U59" s="9" t="s">
+      <c r="V59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W59" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X59" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -6591,7 +6543,6 @@
         <v>29990000</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="0"/>
         <v>30990000</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -6608,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="11"/>
@@ -6617,31 +6568,31 @@
         <v>1</v>
       </c>
       <c r="P60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="R60" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="S60" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S60" s="9" t="s">
+      <c r="T60" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T60" s="9" t="s">
+      <c r="U60" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U60" s="9" t="s">
+      <c r="V60" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V60" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W60" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X60" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -6675,7 +6626,6 @@
         <v>20990000</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="0"/>
         <v>21990000</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -6692,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L61" s="8">
         <v>0</v>
@@ -6703,31 +6653,31 @@
         <v>1</v>
       </c>
       <c r="P61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q61" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="R61" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="S61" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="S61" s="9" t="s">
+      <c r="T61" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T61" s="9" t="s">
+      <c r="U61" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="U61" s="9" t="s">
+      <c r="V61" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V61" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="W61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="X61" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="X61" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6749,7 +6699,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="9">
         <v>22</v>
@@ -6761,7 +6711,6 @@
         <v>18990000</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="0"/>
         <v>19990000</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -6778,7 +6727,7 @@
         <v>53</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L62" s="7">
         <v>500000</v>
@@ -6789,36 +6738,36 @@
         <v>1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U62" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U62" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z62" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA62" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA62" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC62" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC62" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD62" s="9">
         <v>2017</v>
@@ -6837,7 +6786,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="9">
         <v>22</v>
@@ -6849,7 +6798,6 @@
         <v>34990000</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="0"/>
         <v>35990000</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -6866,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="11"/>
@@ -6875,36 +6823,36 @@
         <v>1</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U63" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U63" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z63" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA63" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA63" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB63" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC63" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC63" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD63" s="9">
         <v>2017</v>
@@ -6923,19 +6871,18 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9">
         <v>22</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="D64" s="7">
         <v>28990000</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="0"/>
         <v>29990000</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -6952,7 +6899,7 @@
         <v>54</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="11"/>
@@ -6961,36 +6908,36 @@
         <v>1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U64" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U64" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z64" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA64" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA64" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB64" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC64" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC64" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD64" s="9">
         <v>2017</v>
@@ -7009,23 +6956,22 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="9">
         <v>22</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="D65" s="7">
         <v>28990000</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="0"/>
         <v>29990000</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9">
@@ -7038,7 +6984,7 @@
         <v>6</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L65" s="8">
         <v>0</v>
@@ -7049,36 +6995,36 @@
         <v>1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U65" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U65" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA65" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA65" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB65" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC65" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC65" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD65" s="9">
         <v>2017</v>
@@ -7097,20 +7043,19 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="9">
         <v>22</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D66" s="7">
-        <v>28990000</v>
+        <v>39990000</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="0"/>
-        <v>29990000</v>
+        <v>40990000</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>55</v>
@@ -7120,53 +7065,51 @@
         <v>10</v>
       </c>
       <c r="I66" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" s="10">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L66" s="7">
-        <v>890000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="L66" s="7"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="10">
         <v>1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U66" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U66" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z66" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA66" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA66" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC66" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC66" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD66" s="9">
         <v>2017</v>
@@ -7185,36 +7128,35 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="9">
         <v>22</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="7">
+        <v>48990000</v>
+      </c>
+      <c r="E67" s="7">
+        <v>49990000</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D67" s="7">
-        <v>39990000</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67:E90" si="1">D67+1000000</f>
-        <v>40990000</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9">
         <v>10</v>
       </c>
       <c r="I67" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="11"/>
@@ -7223,36 +7165,36 @@
         <v>1</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U67" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U67" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z67" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA67" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA67" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB67" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC67" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC67" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD67" s="9">
         <v>2017</v>
@@ -7271,74 +7213,75 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="9">
         <v>22</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="7">
+        <v>34990000</v>
+      </c>
+      <c r="E68" s="7">
+        <v>35990000</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D68" s="7">
-        <v>48990000</v>
-      </c>
-      <c r="E68" s="7">
-        <f t="shared" si="1"/>
-        <v>49990000</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9">
         <v>10</v>
       </c>
       <c r="I68" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J68" s="10">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L68" s="7"/>
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="10">
         <v>1</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U68" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U68" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z68" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA68" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA68" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC68" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC68" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD68" s="9">
         <v>2017</v>
@@ -7357,39 +7300,38 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="9">
         <v>22</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="D69" s="7">
         <v>34990000</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="1"/>
         <v>35990000</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9">
         <v>10</v>
       </c>
       <c r="I69" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J69" s="10">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="L69" s="7">
+        <v>990000</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -7397,36 +7339,36 @@
         <v>1</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U69" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U69" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z69" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA69" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA69" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC69" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC69" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD69" s="9">
         <v>2017</v>
@@ -7445,76 +7387,73 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="9">
         <v>22</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="D70" s="7">
         <v>34990000</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="1"/>
         <v>35990000</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9">
         <v>10</v>
       </c>
       <c r="I70" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L70" s="7">
-        <v>990000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="L70" s="7"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="10">
         <v>1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U70" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="U70" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA70" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AA70" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AB70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC70" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="AC70" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="AD70" s="9">
         <v>2017</v>
@@ -7533,36 +7472,35 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="9">
+        <v>25</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="7">
+        <v>13591000</v>
+      </c>
+      <c r="E71" s="7">
+        <v>14591000</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B71" s="9">
-        <v>22</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="7">
-        <v>34990000</v>
-      </c>
-      <c r="E71" s="7">
-        <f t="shared" si="1"/>
-        <v>35990000</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9">
         <v>10</v>
       </c>
       <c r="I71" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" s="10">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="11"/>
@@ -7570,56 +7508,56 @@
       <c r="O71" s="10">
         <v>1</v>
       </c>
-      <c r="P71" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="P71" s="9"/>
       <c r="Q71" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
-      <c r="T71" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="U71" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
-      <c r="Y71" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA71" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB71" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC71" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD71" s="9">
-        <v>2017</v>
-      </c>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
-      <c r="AG71" s="9"/>
-      <c r="AH71" s="9"/>
-      <c r="AI71" s="9"/>
-      <c r="AJ71" s="9"/>
-      <c r="AK71" s="9"/>
-      <c r="AL71" s="9"/>
-      <c r="AM71" s="9"/>
-      <c r="AN71" s="9"/>
-      <c r="AO71" s="9"/>
+      <c r="AG71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI71" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ71" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK71" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL71" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN71" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO71" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="9">
         <v>25</v>
@@ -7628,29 +7566,30 @@
         <v>68</v>
       </c>
       <c r="D72" s="7">
-        <v>13591000</v>
+        <v>11192000</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="1"/>
-        <v>14591000</v>
+        <v>12192000</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9">
         <v>10</v>
       </c>
       <c r="I72" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" s="10">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L72" s="7"/>
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="10">
@@ -7658,7 +7597,7 @@
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
@@ -7676,36 +7615,36 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
       <c r="AG72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH72" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH72" s="9" t="s">
+      <c r="AI72" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI72" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ72" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK72" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK72" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL72" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM72" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM72" s="9" t="s">
+      <c r="AN72" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN72" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO72" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="9">
         <v>25</v>
@@ -7714,30 +7653,29 @@
         <v>69</v>
       </c>
       <c r="D73" s="7">
-        <v>11192000</v>
+        <v>12990000</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="1"/>
-        <v>12192000</v>
+        <v>13990000</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9">
         <v>10</v>
       </c>
       <c r="I73" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" s="10">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L73" s="8">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="L73" s="7">
+        <v>500000</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -7746,7 +7684,7 @@
       </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
@@ -7764,49 +7702,48 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
       <c r="AG73" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH73" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH73" s="9" t="s">
+      <c r="AI73" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI73" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK73" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK73" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL73" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM73" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM73" s="9" t="s">
+      <c r="AN73" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN73" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO73" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="9">
         <v>25</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D74" s="7">
-        <v>12990000</v>
+        <v>11041000</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="1"/>
-        <v>13990000</v>
+        <v>12041000</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>65</v>
@@ -7816,17 +7753,15 @@
         <v>10</v>
       </c>
       <c r="I74" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" s="10">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L74" s="7">
-        <v>500000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="L74" s="7"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="10">
@@ -7834,7 +7769,7 @@
       </c>
       <c r="P74" s="9"/>
       <c r="Q74" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
@@ -7852,49 +7787,48 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
       <c r="AG74" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH74" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH74" s="9" t="s">
+      <c r="AI74" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI74" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ74" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK74" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK74" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM74" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM74" s="9" t="s">
+      <c r="AN74" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN74" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO74" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="9">
         <v>25</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="D75" s="7">
-        <v>11041000</v>
+        <v>9990000</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="1"/>
-        <v>12041000</v>
+        <v>10990000</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>66</v>
@@ -7904,13 +7838,13 @@
         <v>10</v>
       </c>
       <c r="I75" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="10">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="11"/>
@@ -7920,7 +7854,7 @@
       </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
@@ -7938,67 +7872,68 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
       <c r="AG75" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH75" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH75" s="9" t="s">
+      <c r="AI75" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI75" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ75" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK75" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK75" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL75" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM75" s="9" t="s">
+      <c r="AN75" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN75" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO75" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="9">
         <v>25</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D76" s="7">
-        <v>9990000</v>
+        <v>17592000</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="1"/>
-        <v>10990000</v>
+        <v>18592000</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9">
         <v>10</v>
       </c>
       <c r="I76" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" s="10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L76" s="7"/>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="10">
@@ -8006,7 +7941,7 @@
       </c>
       <c r="P76" s="9"/>
       <c r="Q76" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
@@ -8024,68 +7959,67 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
       <c r="AG76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH76" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH76" s="9" t="s">
+      <c r="AI76" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI76" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK76" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK76" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL76" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM76" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM76" s="9" t="s">
+      <c r="AN76" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN76" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO76" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="9">
         <v>25</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D77" s="7">
-        <v>17592000</v>
+        <v>8990000</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="1"/>
-        <v>18592000</v>
+        <v>9990000</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9">
         <v>10</v>
       </c>
       <c r="I77" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" s="10">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="L77" s="7">
+        <v>890000</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -8094,7 +8028,7 @@
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
@@ -8112,69 +8046,66 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
       <c r="AG77" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH77" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH77" s="9" t="s">
+      <c r="AI77" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI77" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ77" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK77" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK77" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL77" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM77" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM77" s="9" t="s">
+      <c r="AN77" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN77" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO77" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="9">
         <v>25</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="7">
         <v>8990000</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="1"/>
         <v>9990000</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9">
         <v>10</v>
       </c>
       <c r="I78" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" s="10">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L78" s="7">
-        <v>890000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="L78" s="7"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="10">
@@ -8182,7 +8113,7 @@
       </c>
       <c r="P78" s="9"/>
       <c r="Q78" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
@@ -8200,36 +8131,36 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
       <c r="AG78" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH78" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH78" s="9" t="s">
+      <c r="AI78" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI78" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK78" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK78" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL78" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM78" s="9" t="s">
+      <c r="AN78" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN78" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO78" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="9">
         <v>25</v>
@@ -8238,27 +8169,26 @@
         <v>76</v>
       </c>
       <c r="D79" s="7">
-        <v>8990000</v>
+        <v>17841000</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="1"/>
-        <v>9990000</v>
+        <v>18841000</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9">
         <v>10</v>
       </c>
       <c r="I79" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" s="10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L79" s="7"/>
       <c r="M79" s="11"/>
@@ -8268,7 +8198,7 @@
       </c>
       <c r="P79" s="9"/>
       <c r="Q79" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
@@ -8286,122 +8216,121 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
       <c r="AG79" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH79" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH79" s="9" t="s">
+      <c r="AI79" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AI79" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ79" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AK79" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="AL79" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM79" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AM79" s="9" t="s">
+      <c r="AN79" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AN79" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="AO79" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B80" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="D80" s="7">
-        <v>17841000</v>
+        <v>14090000</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="1"/>
-        <v>18841000</v>
+        <v>15090000</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9">
         <v>10</v>
       </c>
       <c r="I80" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" s="10">
         <v>23</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L80" s="7"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
       <c r="O80" s="10">
         <v>1</v>
       </c>
-      <c r="P80" s="9"/>
+      <c r="P80" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="Q80" s="9" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
+      <c r="T80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="U80" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
+      <c r="Y80" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z80" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA80" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB80" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD80" s="9">
+        <v>2020</v>
+      </c>
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
-      <c r="AG80" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH80" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI80" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ80" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK80" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL80" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM80" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN80" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO80" s="9" t="s">
-        <v>315</v>
-      </c>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="9"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="9"/>
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="9"/>
+      <c r="AO80" s="9"/>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="9">
         <v>16</v>
@@ -8410,65 +8339,66 @@
         <v>226</v>
       </c>
       <c r="D81" s="7">
-        <v>14090000</v>
+        <v>13590000</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="1"/>
-        <v>15090000</v>
+        <v>14590000</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
         <v>10</v>
       </c>
       <c r="I81" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" s="10">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L81" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="L81" s="7">
+        <v>250000</v>
+      </c>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="10">
         <v>1</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Z81" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA81" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AB81" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AD81" s="9">
         <v>2020</v>
@@ -8487,7 +8417,7 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="9">
         <v>16</v>
@@ -8496,30 +8426,29 @@
         <v>227</v>
       </c>
       <c r="D82" s="7">
-        <v>13590000</v>
+        <v>6890000</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="1"/>
-        <v>14590000</v>
+        <v>7890000</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <v>10</v>
       </c>
       <c r="I82" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82" s="10">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L82" s="7">
-        <v>250000</v>
+        <v>158</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -8527,36 +8456,36 @@
         <v>1</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Z82" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA82" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AA82" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="AB82" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC82" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AD82" s="9">
         <v>2020</v>
@@ -8575,7 +8504,7 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="9">
         <v>16</v>
@@ -8584,30 +8513,29 @@
         <v>228</v>
       </c>
       <c r="D83" s="7">
-        <v>6890000</v>
+        <v>17990000</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="1"/>
-        <v>7890000</v>
+        <v>18990000</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
         <v>10</v>
       </c>
       <c r="I83" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J83" s="10">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L83" s="8">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="L83" s="7">
+        <v>300000</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -8615,36 +8543,36 @@
         <v>1</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Z83" s="9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AA83" s="9" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AB83" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AC83" s="9" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="AD83" s="9">
         <v>2020</v>
@@ -8663,7 +8591,7 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="9">
         <v>16</v>
@@ -8672,30 +8600,29 @@
         <v>229</v>
       </c>
       <c r="D84" s="7">
-        <v>17990000</v>
+        <v>16690000</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="1"/>
-        <v>18990000</v>
+        <v>17690000</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <v>10</v>
       </c>
       <c r="I84" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J84" s="10">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L84" s="7">
-        <v>300000</v>
+        <v>158</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -8703,36 +8630,36 @@
         <v>1</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U84" s="9" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Z84" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA84" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AA84" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="AB84" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AC84" s="9" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AD84" s="9">
         <v>2020</v>
@@ -8751,36 +8678,35 @@
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D85" s="7">
-        <v>16690000</v>
+        <v>17590000</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="1"/>
-        <v>17690000</v>
+        <v>18590000</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9">
         <v>10</v>
       </c>
       <c r="I85" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" s="10">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L85" s="8">
         <v>0</v>
@@ -8791,36 +8717,36 @@
         <v>1</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="R85" s="9"/>
       <c r="S85" s="9"/>
       <c r="T85" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U85" s="9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z85" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AA85" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB85" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AB85" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="AC85" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AD85" s="9">
         <v>2020</v>
@@ -8839,7 +8765,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="9">
         <v>18</v>
@@ -8848,67 +8774,64 @@
         <v>231</v>
       </c>
       <c r="D86" s="7">
-        <v>17590000</v>
+        <v>10990000</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="1"/>
-        <v>18590000</v>
+        <v>11990000</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9">
         <v>10</v>
       </c>
       <c r="I86" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J86" s="10">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L86" s="8">
-        <v>0</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="L86" s="7"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="10">
         <v>1</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="U86" s="9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="Z86" s="9" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="AA86" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AB86" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AC86" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AD86" s="9">
         <v>2020</v>
@@ -8927,7 +8850,7 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="9">
         <v>18</v>
@@ -8936,65 +8859,66 @@
         <v>232</v>
       </c>
       <c r="D87" s="7">
-        <v>10990000</v>
+        <v>14490000</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="1"/>
-        <v>11990000</v>
+        <v>15490000</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9">
         <v>10</v>
       </c>
       <c r="I87" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J87" s="10">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L87" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="L87" s="7">
+        <v>250000</v>
+      </c>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="10">
         <v>1</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="U87" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="Z87" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA87" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AB87" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC87" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AD87" s="9">
         <v>2020</v>
@@ -9013,7 +8937,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="9">
         <v>18</v>
@@ -9022,30 +8946,29 @@
         <v>233</v>
       </c>
       <c r="D88" s="7">
-        <v>14490000</v>
+        <v>22190000</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="1"/>
-        <v>15490000</v>
+        <v>23190000</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9">
         <v>10</v>
       </c>
       <c r="I88" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J88" s="10">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L88" s="7">
-        <v>250000</v>
+        <v>158</v>
+      </c>
+      <c r="L88" s="8">
+        <v>0</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -9053,36 +8976,36 @@
         <v>1</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="U88" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z88" s="9" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AA88" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="AB88" s="9" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="AC88" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AD88" s="9">
         <v>2020</v>
@@ -9101,7 +9024,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="9">
         <v>18</v>
@@ -9110,27 +9033,26 @@
         <v>234</v>
       </c>
       <c r="D89" s="7">
-        <v>22190000</v>
+        <v>27890000</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="1"/>
-        <v>23190000</v>
+        <v>28890000</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9">
         <v>10</v>
       </c>
       <c r="I89" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L89" s="8">
         <v>0</v>
@@ -9141,39 +9063,39 @@
         <v>1</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U89" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z89" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA89" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB89" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC89" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AB89" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC89" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="AD89" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AE89" s="9"/>
       <c r="AF89" s="9"/>
@@ -9188,92 +9110,47 @@
       <c r="AO89" s="9"/>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="9">
-        <v>18</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="7">
-        <v>27890000</v>
-      </c>
-      <c r="E90" s="7">
-        <f t="shared" si="1"/>
-        <v>28890000</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9">
-        <v>10</v>
-      </c>
-      <c r="I90" s="9">
-        <v>4</v>
-      </c>
-      <c r="J90" s="10">
-        <v>23</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L90" s="8">
-        <v>0</v>
-      </c>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="10">
-        <v>1</v>
-      </c>
-      <c r="P90" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q90" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="U90" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z90" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA90" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB90" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC90" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD90" s="9">
-        <v>2021</v>
-      </c>
-      <c r="AE90" s="9"/>
-      <c r="AF90" s="9"/>
-      <c r="AG90" s="9"/>
-      <c r="AH90" s="9"/>
-      <c r="AI90" s="9"/>
-      <c r="AJ90" s="9"/>
-      <c r="AK90" s="9"/>
-      <c r="AL90" s="9"/>
-      <c r="AM90" s="9"/>
-      <c r="AN90" s="9"/>
-      <c r="AO90" s="9"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
@@ -11125,47 +11002,21 @@
       <c r="AO133" s="6"/>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="6"/>
-      <c r="W134" s="6"/>
-      <c r="X134" s="6"/>
-      <c r="Y134" s="6"/>
-      <c r="Z134" s="6"/>
-      <c r="AA134" s="6"/>
-      <c r="AB134" s="6"/>
-      <c r="AC134" s="6"/>
-      <c r="AD134" s="6"/>
-      <c r="AE134" s="6"/>
-      <c r="AF134" s="6"/>
-      <c r="AG134" s="6"/>
-      <c r="AH134" s="6"/>
-      <c r="AI134" s="6"/>
-      <c r="AJ134" s="6"/>
-      <c r="AK134" s="6"/>
-      <c r="AL134" s="6"/>
-      <c r="AM134" s="6"/>
-      <c r="AN134" s="6"/>
-      <c r="AO134" s="6"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
@@ -11354,23 +11205,6 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/upload_excel/uploads/sanpham.xlsx
+++ b/admin/upload_excel/uploads/sanpham.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dulieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429C569-8420-4DD8-B7C2-6C8547D7AB19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{B9A2076C-84CF-4F1F-BC4C-D617F90B8E76}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -996,7 +995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1425,12 +1424,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59ADC8-2F5B-4006-9DA9-FA86B053B636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
@@ -1682,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>157</v>
@@ -1767,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="I4" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>157</v>
@@ -1852,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>157</v>
@@ -1937,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>157</v>
@@ -2022,10 +2021,10 @@
         <v>10</v>
       </c>
       <c r="I7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>158</v>
@@ -2109,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>158</v>
@@ -2196,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>158</v>
@@ -2283,10 +2282,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>158</v>
@@ -2370,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>236</v>
@@ -2457,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="I12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>236</v>
@@ -2544,10 +2543,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>236</v>
@@ -2631,10 +2630,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>236</v>
@@ -2718,10 +2717,10 @@
         <v>10</v>
       </c>
       <c r="I15" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>159</v>
@@ -2803,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="I16" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>159</v>
@@ -2888,10 +2887,10 @@
         <v>10</v>
       </c>
       <c r="I17" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>159</v>
@@ -2973,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="I18" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>159</v>
@@ -3058,10 +3057,10 @@
         <v>10</v>
       </c>
       <c r="I19" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>157</v>
@@ -3143,10 +3142,10 @@
         <v>10</v>
       </c>
       <c r="I20" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>157</v>
@@ -3228,10 +3227,10 @@
         <v>10</v>
       </c>
       <c r="I21" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>157</v>
@@ -3313,10 +3312,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>157</v>
@@ -3398,10 +3397,10 @@
         <v>10</v>
       </c>
       <c r="I23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>158</v>
@@ -3485,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="I24" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>158</v>
@@ -3572,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="I25" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>158</v>
@@ -3659,10 +3658,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>158</v>
@@ -3746,10 +3745,10 @@
         <v>10</v>
       </c>
       <c r="I27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>236</v>
@@ -3833,10 +3832,10 @@
         <v>10</v>
       </c>
       <c r="I28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>236</v>
@@ -3920,10 +3919,10 @@
         <v>10</v>
       </c>
       <c r="I29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>236</v>
@@ -4007,10 +4006,10 @@
         <v>10</v>
       </c>
       <c r="I30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>236</v>
@@ -4094,10 +4093,10 @@
         <v>10</v>
       </c>
       <c r="I31" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>159</v>
@@ -4179,10 +4178,10 @@
         <v>10</v>
       </c>
       <c r="I32" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J32" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>159</v>
@@ -4264,10 +4263,10 @@
         <v>10</v>
       </c>
       <c r="I33" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J33" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>159</v>
@@ -4349,10 +4348,10 @@
         <v>10</v>
       </c>
       <c r="I34" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>159</v>
@@ -4434,10 +4433,10 @@
         <v>10</v>
       </c>
       <c r="I35" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J35" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>159</v>
@@ -4519,10 +4518,10 @@
         <v>10</v>
       </c>
       <c r="I36" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>157</v>
@@ -4604,10 +4603,10 @@
         <v>10</v>
       </c>
       <c r="I37" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>157</v>
@@ -4689,10 +4688,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>157</v>
@@ -4774,10 +4773,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>157</v>
@@ -4859,10 +4858,10 @@
         <v>10</v>
       </c>
       <c r="I40" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J40" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>157</v>
@@ -4944,10 +4943,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>158</v>
@@ -5031,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="I42" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>158</v>
@@ -5118,10 +5117,10 @@
         <v>10</v>
       </c>
       <c r="I43" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>158</v>
@@ -5205,10 +5204,10 @@
         <v>10</v>
       </c>
       <c r="I44" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>158</v>
@@ -5292,10 +5291,10 @@
         <v>10</v>
       </c>
       <c r="I45" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>158</v>
@@ -5377,10 +5376,10 @@
         <v>10</v>
       </c>
       <c r="I46" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" s="10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>236</v>
@@ -5462,10 +5461,10 @@
         <v>10</v>
       </c>
       <c r="I47" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>159</v>
@@ -5545,10 +5544,10 @@
         <v>10</v>
       </c>
       <c r="I48" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>157</v>
@@ -5628,10 +5627,10 @@
         <v>10</v>
       </c>
       <c r="I49" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>158</v>
@@ -5713,10 +5712,10 @@
         <v>10</v>
       </c>
       <c r="I50" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>236</v>
@@ -5798,10 +5797,10 @@
         <v>10</v>
       </c>
       <c r="I51" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>159</v>
@@ -5881,10 +5880,10 @@
         <v>10</v>
       </c>
       <c r="I52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>157</v>
@@ -5964,10 +5963,10 @@
         <v>10</v>
       </c>
       <c r="I53" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>158</v>
@@ -6049,10 +6048,10 @@
         <v>10</v>
       </c>
       <c r="I54" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>236</v>
@@ -6134,10 +6133,10 @@
         <v>10</v>
       </c>
       <c r="I55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J55" s="10">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>159</v>
@@ -6217,10 +6216,10 @@
         <v>10</v>
       </c>
       <c r="I56" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>157</v>
@@ -6300,10 +6299,10 @@
         <v>10</v>
       </c>
       <c r="I57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="10">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>158</v>
@@ -6385,10 +6384,10 @@
         <v>10</v>
       </c>
       <c r="I58" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>236</v>
@@ -6470,10 +6469,10 @@
         <v>10</v>
       </c>
       <c r="I59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>159</v>
@@ -6553,10 +6552,10 @@
         <v>10</v>
       </c>
       <c r="I60" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>157</v>
@@ -6636,10 +6635,10 @@
         <v>10</v>
       </c>
       <c r="I61" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>158</v>
@@ -6721,10 +6720,10 @@
         <v>10</v>
       </c>
       <c r="I62" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>236</v>
@@ -6808,10 +6807,10 @@
         <v>10</v>
       </c>
       <c r="I63" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>159</v>
@@ -6893,10 +6892,10 @@
         <v>10</v>
       </c>
       <c r="I64" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>157</v>
@@ -6978,10 +6977,10 @@
         <v>10</v>
       </c>
       <c r="I65" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>158</v>
@@ -7065,10 +7064,10 @@
         <v>10</v>
       </c>
       <c r="I66" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>159</v>
@@ -7150,10 +7149,10 @@
         <v>10</v>
       </c>
       <c r="I67" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J67" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>157</v>
@@ -7235,10 +7234,10 @@
         <v>10</v>
       </c>
       <c r="I68" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J68" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>158</v>
@@ -7322,10 +7321,10 @@
         <v>10</v>
       </c>
       <c r="I69" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J69" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>236</v>
@@ -7409,10 +7408,10 @@
         <v>10</v>
       </c>
       <c r="I70" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J70" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>159</v>
@@ -7494,10 +7493,10 @@
         <v>10</v>
       </c>
       <c r="I71" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" s="10">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>157</v>
@@ -7579,10 +7578,10 @@
         <v>10</v>
       </c>
       <c r="I72" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72" s="10">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>158</v>
@@ -7666,10 +7665,10 @@
         <v>10</v>
       </c>
       <c r="I73" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>236</v>
@@ -7753,10 +7752,10 @@
         <v>10</v>
       </c>
       <c r="I74" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>159</v>
@@ -7838,10 +7837,10 @@
         <v>10</v>
       </c>
       <c r="I75" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>157</v>
@@ -7923,10 +7922,10 @@
         <v>10</v>
       </c>
       <c r="I76" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>158</v>
@@ -8010,10 +8009,10 @@
         <v>10</v>
       </c>
       <c r="I77" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K77" s="9" t="s">
         <v>236</v>
@@ -8097,10 +8096,10 @@
         <v>10</v>
       </c>
       <c r="I78" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>159</v>
@@ -8182,10 +8181,10 @@
         <v>10</v>
       </c>
       <c r="I79" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J79" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>157</v>
@@ -8267,10 +8266,10 @@
         <v>10</v>
       </c>
       <c r="I80" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>159</v>
@@ -8352,10 +8351,10 @@
         <v>10</v>
       </c>
       <c r="I81" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>171</v>
@@ -8439,10 +8438,10 @@
         <v>10</v>
       </c>
       <c r="I82" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J82" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>158</v>
@@ -8526,10 +8525,10 @@
         <v>10</v>
       </c>
       <c r="I83" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>171</v>
@@ -8613,10 +8612,10 @@
         <v>10</v>
       </c>
       <c r="I84" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" s="10">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>158</v>
@@ -8700,10 +8699,10 @@
         <v>10</v>
       </c>
       <c r="I85" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J85" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K85" s="9" t="s">
         <v>158</v>
@@ -8787,10 +8786,10 @@
         <v>10</v>
       </c>
       <c r="I86" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" s="10">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>157</v>
@@ -8872,10 +8871,10 @@
         <v>10</v>
       </c>
       <c r="I87" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J87" s="10">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>171</v>
@@ -8959,10 +8958,10 @@
         <v>10</v>
       </c>
       <c r="I88" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88" s="10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>158</v>
@@ -9046,10 +9045,10 @@
         <v>10</v>
       </c>
       <c r="I89" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J89" s="10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>158</v>

--- a/admin/upload_excel/uploads/sanpham.xlsx
+++ b/admin/upload_excel/uploads/sanpham.xlsx
@@ -1554,9 +1554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/admin/upload_excel/uploads/sanpham.xlsx
+++ b/admin/upload_excel/uploads/sanpham.xlsx
@@ -1554,9 +1554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,9 +3532,7 @@
       <c r="K23" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L23" s="8">
-        <v>-3</v>
-      </c>
+      <c r="L23" s="8"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="10">
@@ -3619,9 +3617,7 @@
       <c r="K24" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="8">
-        <v>-2</v>
-      </c>
+      <c r="L24" s="8"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="10">
@@ -3706,9 +3702,7 @@
       <c r="K25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L25" s="8">
-        <v>-1</v>
-      </c>
+      <c r="L25" s="8"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="10">
@@ -3793,9 +3787,7 @@
       <c r="K26" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
+      <c r="L26" s="8"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="10">
@@ -5078,9 +5070,7 @@
       <c r="K41" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L41" s="8">
-        <v>-4</v>
-      </c>
+      <c r="L41" s="8"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="10">
@@ -5165,9 +5155,7 @@
       <c r="K42" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L42" s="8">
-        <v>-3</v>
-      </c>
+      <c r="L42" s="8"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="10">
@@ -5252,9 +5240,7 @@
       <c r="K43" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L43" s="8">
-        <v>-2</v>
-      </c>
+      <c r="L43" s="8"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
       <c r="O43" s="10">
@@ -5339,9 +5325,7 @@
       <c r="K44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="8">
-        <v>-1</v>
-      </c>
+      <c r="L44" s="8"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="10">
@@ -5426,9 +5410,7 @@
       <c r="K45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
+      <c r="L45" s="8"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="10">
@@ -5762,9 +5744,7 @@
       <c r="K49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
+      <c r="L49" s="8"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="10">
@@ -6098,9 +6078,7 @@
       <c r="K53" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L53" s="8">
-        <v>0</v>
-      </c>
+      <c r="L53" s="8"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="10">
@@ -6434,9 +6412,7 @@
       <c r="K57" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
+      <c r="L57" s="8"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="10">
@@ -6770,9 +6746,7 @@
       <c r="K61" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
+      <c r="L61" s="8"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="10">
@@ -7197,9 +7171,7 @@
       <c r="K66" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L66" s="8">
-        <v>0</v>
-      </c>
+      <c r="L66" s="8"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="10">
@@ -7541,9 +7513,7 @@
       <c r="K70" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
+      <c r="L70" s="8"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="10">
@@ -7877,9 +7847,7 @@
       <c r="K74" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L74" s="8">
-        <v>0</v>
-      </c>
+      <c r="L74" s="8"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="10">
@@ -8304,9 +8272,7 @@
       <c r="K79" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L79" s="8">
-        <v>0</v>
-      </c>
+      <c r="L79" s="8"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="10">
@@ -8561,9 +8527,7 @@
       <c r="K82" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L82" s="8">
-        <v>0</v>
-      </c>
+      <c r="L82" s="8"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="10">
@@ -8905,9 +8869,7 @@
       <c r="K86" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L86" s="8">
-        <v>0</v>
-      </c>
+      <c r="L86" s="8"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
       <c r="O86" s="10">
@@ -9249,9 +9211,7 @@
       <c r="K90" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L90" s="8">
-        <v>0</v>
-      </c>
+      <c r="L90" s="8"/>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="10">
@@ -9852,9 +9812,7 @@
       <c r="K97" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L97" s="8">
-        <v>0</v>
-      </c>
+      <c r="L97" s="8"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="10">
@@ -10026,9 +9984,7 @@
       <c r="K99" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L99" s="8">
-        <v>0</v>
-      </c>
+      <c r="L99" s="8"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="10">
@@ -10113,9 +10069,7 @@
       <c r="K100" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L100" s="8">
-        <v>0</v>
-      </c>
+      <c r="L100" s="8"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="10">
@@ -10372,9 +10326,7 @@
       <c r="K103" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L103" s="8">
-        <v>0</v>
-      </c>
+      <c r="L103" s="8"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="10">
@@ -10459,9 +10411,7 @@
       <c r="K104" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L104" s="8">
-        <v>0</v>
-      </c>
+      <c r="L104" s="8"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="10">
